--- a/work/V1.2_新增字段(1月18号更新).xlsx
+++ b/work/V1.2_新增字段(1月18号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B8F056-CA20-4DA4-8F35-22F76A1B24D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C5ED3-2005-48C6-8365-9AB42E83D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="2355" windowWidth="19545" windowHeight="12990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -1326,9 +1326,6 @@
     <t>桥梁线路Id</t>
   </si>
   <si>
-    <t>bge_superstructrue_info_yjl (衍架梁桥)</t>
-  </si>
-  <si>
     <t>bridge_span_form_yjl</t>
   </si>
   <si>
@@ -4192,6 +4189,10 @@
   </si>
   <si>
     <t>护岸类型(混凝土护岸，植被护岸)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_yjl (桁(衍)架梁桥)</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -5620,8 +5621,8 @@
   <dimension ref="B1:E282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5946,7 +5947,7 @@
         <v>53</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -6347,62 +6348,62 @@
         <v>123</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="s">
         <v>125</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>126</v>
-      </c>
-      <c r="D68" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
         <v>128</v>
       </c>
-      <c r="C69" t="s">
-        <v>129</v>
-      </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
         <v>130</v>
       </c>
-      <c r="C70" t="s">
-        <v>131</v>
-      </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" t="s">
         <v>132</v>
       </c>
-      <c r="C71" t="s">
-        <v>133</v>
-      </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
         <v>29</v>
@@ -6410,112 +6411,112 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
         <v>136</v>
       </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
         <v>138</v>
       </c>
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
         <v>140</v>
       </c>
-      <c r="C75" t="s">
-        <v>141</v>
-      </c>
       <c r="D75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
         <v>142</v>
       </c>
-      <c r="C76" t="s">
-        <v>143</v>
-      </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
         <v>144</v>
       </c>
-      <c r="C77" t="s">
-        <v>145</v>
-      </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
         <v>146</v>
       </c>
-      <c r="C78" t="s">
-        <v>147</v>
-      </c>
       <c r="D78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
         <v>148</v>
       </c>
-      <c r="C79" t="s">
-        <v>149</v>
-      </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" t="s">
         <v>150</v>
       </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" t="s">
         <v>152</v>
       </c>
-      <c r="C81" t="s">
-        <v>153</v>
-      </c>
       <c r="D81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
         <v>29</v>
@@ -6523,46 +6524,46 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
         <v>156</v>
       </c>
-      <c r="C83" t="s">
-        <v>157</v>
-      </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" t="s">
         <v>158</v>
       </c>
-      <c r="C84" t="s">
-        <v>159</v>
-      </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
         <v>160</v>
       </c>
-      <c r="C85" t="s">
-        <v>161</v>
-      </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
@@ -6570,57 +6571,57 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
         <v>164</v>
       </c>
-      <c r="C87" t="s">
-        <v>165</v>
-      </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
         <v>166</v>
       </c>
-      <c r="C88" t="s">
-        <v>167</v>
-      </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" t="s">
         <v>168</v>
       </c>
-      <c r="C89" t="s">
-        <v>169</v>
-      </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" t="s">
         <v>170</v>
       </c>
-      <c r="C90" t="s">
-        <v>171</v>
-      </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
         <v>29</v>
@@ -6628,57 +6629,57 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" t="s">
         <v>174</v>
       </c>
-      <c r="C92" t="s">
-        <v>175</v>
-      </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" t="s">
         <v>176</v>
       </c>
-      <c r="C93" t="s">
-        <v>177</v>
-      </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
         <v>178</v>
       </c>
-      <c r="C94" t="s">
-        <v>179</v>
-      </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" t="s">
         <v>180</v>
       </c>
-      <c r="C95" t="s">
-        <v>181</v>
-      </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" t="s">
         <v>182</v>
       </c>
-      <c r="C96" t="s">
-        <v>183</v>
-      </c>
       <c r="D96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -6689,18 +6690,18 @@
         <v>123</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" t="s">
         <v>185</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>186</v>
-      </c>
-      <c r="D99" t="s">
-        <v>187</v>
       </c>
       <c r="E99" t="s">
         <v>29</v>
@@ -6708,68 +6709,68 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" t="s">
         <v>188</v>
       </c>
-      <c r="C100" t="s">
-        <v>189</v>
-      </c>
       <c r="D100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" t="s">
         <v>190</v>
       </c>
-      <c r="C101" t="s">
-        <v>191</v>
-      </c>
       <c r="D101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
         <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" t="s">
         <v>193</v>
       </c>
-      <c r="C103" t="s">
-        <v>194</v>
-      </c>
       <c r="D103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" t="s">
         <v>195</v>
       </c>
-      <c r="C104" t="s">
-        <v>196</v>
-      </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
         <v>197</v>
       </c>
-      <c r="C105" t="s">
-        <v>198</v>
-      </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
         <v>29</v>
@@ -6777,68 +6778,68 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
         <v>199</v>
       </c>
-      <c r="C106" t="s">
-        <v>200</v>
-      </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s">
         <v>201</v>
       </c>
-      <c r="C107" t="s">
-        <v>202</v>
-      </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
         <v>203</v>
       </c>
-      <c r="C108" t="s">
-        <v>204</v>
-      </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
         <v>205</v>
       </c>
-      <c r="C109" t="s">
-        <v>206</v>
-      </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" t="s">
         <v>207</v>
       </c>
-      <c r="C110" t="s">
-        <v>208</v>
-      </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" t="s">
         <v>209</v>
       </c>
-      <c r="C111" t="s">
-        <v>210</v>
-      </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
@@ -6846,156 +6847,156 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" t="s">
         <v>211</v>
       </c>
-      <c r="C112" t="s">
-        <v>212</v>
-      </c>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" t="s">
         <v>213</v>
       </c>
-      <c r="C113" t="s">
-        <v>214</v>
-      </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" t="s">
         <v>215</v>
       </c>
-      <c r="C114" t="s">
-        <v>216</v>
-      </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" t="s">
         <v>217</v>
       </c>
-      <c r="C115" t="s">
-        <v>218</v>
-      </c>
       <c r="D115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" t="s">
         <v>219</v>
       </c>
-      <c r="C116" t="s">
-        <v>220</v>
-      </c>
       <c r="D116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" t="s">
         <v>221</v>
       </c>
-      <c r="C117" t="s">
-        <v>222</v>
-      </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" t="s">
         <v>223</v>
       </c>
-      <c r="C118" t="s">
-        <v>224</v>
-      </c>
       <c r="D118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
+        <v>224</v>
+      </c>
+      <c r="C119" t="s">
         <v>225</v>
       </c>
-      <c r="C119" t="s">
-        <v>226</v>
-      </c>
       <c r="D119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" t="s">
         <v>227</v>
       </c>
-      <c r="C120" t="s">
-        <v>228</v>
-      </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
+        <v>228</v>
+      </c>
+      <c r="C121" t="s">
         <v>229</v>
       </c>
-      <c r="C121" t="s">
-        <v>230</v>
-      </c>
       <c r="D121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
+        <v>230</v>
+      </c>
+      <c r="C122" t="s">
         <v>231</v>
       </c>
-      <c r="C122" t="s">
-        <v>232</v>
-      </c>
       <c r="D122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" t="s">
         <v>233</v>
       </c>
-      <c r="C123" t="s">
-        <v>234</v>
-      </c>
       <c r="D123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124" t="s">
         <v>235</v>
       </c>
-      <c r="C124" t="s">
-        <v>236</v>
-      </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" t="s">
         <v>237</v>
       </c>
-      <c r="C125" t="s">
-        <v>238</v>
-      </c>
       <c r="D125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E125" t="s">
         <v>29</v>
@@ -7003,57 +7004,57 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" t="s">
         <v>239</v>
       </c>
-      <c r="C126" t="s">
-        <v>240</v>
-      </c>
       <c r="D126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" t="s">
         <v>241</v>
       </c>
-      <c r="C127" t="s">
-        <v>242</v>
-      </c>
       <c r="D127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" t="s">
         <v>243</v>
       </c>
-      <c r="C128" t="s">
-        <v>244</v>
-      </c>
       <c r="D128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" t="s">
         <v>245</v>
       </c>
-      <c r="C129" t="s">
-        <v>246</v>
-      </c>
       <c r="D129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C130" t="s">
         <v>247</v>
       </c>
-      <c r="C130" t="s">
-        <v>248</v>
-      </c>
       <c r="D130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E130" t="s">
         <v>29</v>
@@ -7061,200 +7062,200 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" t="s">
         <v>249</v>
       </c>
-      <c r="C131" t="s">
-        <v>250</v>
-      </c>
       <c r="D131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" t="s">
         <v>251</v>
       </c>
-      <c r="C132" t="s">
-        <v>252</v>
-      </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
+        <v>252</v>
+      </c>
+      <c r="C133" t="s">
         <v>253</v>
       </c>
-      <c r="C133" t="s">
-        <v>254</v>
-      </c>
       <c r="D133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" t="s">
         <v>255</v>
       </c>
-      <c r="C134" t="s">
-        <v>256</v>
-      </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C136" t="s">
         <v>257</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>258</v>
-      </c>
-      <c r="D136" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C137" t="s">
         <v>260</v>
       </c>
-      <c r="C137" t="s">
-        <v>261</v>
-      </c>
       <c r="D137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
+        <v>261</v>
+      </c>
+      <c r="C138" t="s">
         <v>262</v>
       </c>
-      <c r="C138" t="s">
-        <v>263</v>
-      </c>
       <c r="D138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" t="s">
         <v>264</v>
       </c>
-      <c r="C139" t="s">
-        <v>265</v>
-      </c>
       <c r="D139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C140" t="s">
         <v>266</v>
       </c>
-      <c r="C140" t="s">
-        <v>267</v>
-      </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" t="s">
         <v>268</v>
       </c>
-      <c r="C141" t="s">
-        <v>269</v>
-      </c>
       <c r="D141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" t="s">
         <v>270</v>
       </c>
-      <c r="C142" t="s">
-        <v>271</v>
-      </c>
       <c r="D142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" t="s">
         <v>272</v>
       </c>
-      <c r="C143" t="s">
-        <v>273</v>
-      </c>
       <c r="D143" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144" t="s">
         <v>274</v>
       </c>
-      <c r="C144" t="s">
-        <v>275</v>
-      </c>
       <c r="D144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" t="s">
         <v>276</v>
       </c>
-      <c r="C145" t="s">
-        <v>277</v>
-      </c>
       <c r="D145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146" t="s">
         <v>278</v>
       </c>
-      <c r="C146" t="s">
-        <v>279</v>
-      </c>
       <c r="D146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
+        <v>279</v>
+      </c>
+      <c r="C147" t="s">
         <v>280</v>
       </c>
-      <c r="C147" t="s">
-        <v>281</v>
-      </c>
       <c r="D147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
+        <v>281</v>
+      </c>
+      <c r="C148" t="s">
         <v>282</v>
       </c>
-      <c r="C148" t="s">
-        <v>283</v>
-      </c>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
+        <v>283</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="D149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E149" t="s">
         <v>29</v>
@@ -7262,90 +7263,90 @@
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" t="s">
         <v>286</v>
       </c>
-      <c r="C150" t="s">
-        <v>287</v>
-      </c>
       <c r="D150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
+        <v>287</v>
+      </c>
+      <c r="C151" t="s">
         <v>288</v>
       </c>
-      <c r="C151" t="s">
-        <v>289</v>
-      </c>
       <c r="D151" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
+        <v>289</v>
+      </c>
+      <c r="C152" t="s">
         <v>290</v>
       </c>
-      <c r="C152" t="s">
-        <v>291</v>
-      </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" t="s">
         <v>292</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>293</v>
-      </c>
-      <c r="D154" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" t="s">
         <v>295</v>
       </c>
-      <c r="C155" t="s">
-        <v>296</v>
-      </c>
       <c r="D155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
+        <v>296</v>
+      </c>
+      <c r="C156" t="s">
         <v>297</v>
       </c>
-      <c r="C156" t="s">
-        <v>298</v>
-      </c>
       <c r="D156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" t="s">
         <v>299</v>
       </c>
-      <c r="C157" t="s">
-        <v>300</v>
-      </c>
       <c r="D157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" t="s">
         <v>301</v>
       </c>
-      <c r="C158" t="s">
-        <v>302</v>
-      </c>
       <c r="D158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E158" t="s">
         <v>29</v>
@@ -7353,46 +7354,46 @@
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" t="s">
         <v>303</v>
       </c>
-      <c r="C159" t="s">
-        <v>304</v>
-      </c>
       <c r="D159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
+        <v>304</v>
+      </c>
+      <c r="C160" t="s">
         <v>305</v>
       </c>
-      <c r="C160" t="s">
-        <v>306</v>
-      </c>
       <c r="D160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
+        <v>306</v>
+      </c>
+      <c r="C161" t="s">
         <v>307</v>
       </c>
-      <c r="C161" t="s">
-        <v>308</v>
-      </c>
       <c r="D161" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C162" t="s">
         <v>309</v>
       </c>
-      <c r="C162" t="s">
-        <v>310</v>
-      </c>
       <c r="D162" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E162" t="s">
         <v>29</v>
@@ -7400,46 +7401,46 @@
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" t="s">
         <v>311</v>
       </c>
-      <c r="C163" t="s">
-        <v>312</v>
-      </c>
       <c r="D163" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
+        <v>312</v>
+      </c>
+      <c r="C164" t="s">
         <v>313</v>
       </c>
-      <c r="C164" t="s">
-        <v>314</v>
-      </c>
       <c r="D164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
+        <v>314</v>
+      </c>
+      <c r="C165" t="s">
         <v>315</v>
       </c>
-      <c r="C165" t="s">
-        <v>316</v>
-      </c>
       <c r="D165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" t="s">
         <v>317</v>
       </c>
-      <c r="C166" t="s">
-        <v>318</v>
-      </c>
       <c r="D166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E166" t="s">
         <v>29</v>
@@ -7447,24 +7448,24 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
+        <v>318</v>
+      </c>
+      <c r="C167" t="s">
         <v>319</v>
       </c>
-      <c r="C167" t="s">
-        <v>320</v>
-      </c>
       <c r="D167" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C168" t="s">
         <v>321</v>
       </c>
-      <c r="C168" t="s">
-        <v>322</v>
-      </c>
       <c r="D168" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E168" t="s">
         <v>29</v>
@@ -7472,24 +7473,24 @@
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
+        <v>322</v>
+      </c>
+      <c r="C169" t="s">
         <v>323</v>
       </c>
-      <c r="C169" t="s">
-        <v>324</v>
-      </c>
       <c r="D169" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" t="s">
         <v>325</v>
       </c>
-      <c r="C170" t="s">
-        <v>326</v>
-      </c>
       <c r="D170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E170" t="s">
         <v>29</v>
@@ -7497,24 +7498,24 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C171" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D171" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E172" t="s">
         <v>29</v>
@@ -7522,112 +7523,112 @@
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
+        <v>327</v>
+      </c>
+      <c r="C173" t="s">
         <v>328</v>
       </c>
-      <c r="C173" t="s">
-        <v>329</v>
-      </c>
       <c r="D173" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
+        <v>329</v>
+      </c>
+      <c r="C174" t="s">
         <v>330</v>
       </c>
-      <c r="C174" t="s">
-        <v>331</v>
-      </c>
       <c r="D174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
+        <v>331</v>
+      </c>
+      <c r="C175" t="s">
         <v>332</v>
       </c>
-      <c r="C175" t="s">
-        <v>333</v>
-      </c>
       <c r="D175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
+        <v>333</v>
+      </c>
+      <c r="C176" t="s">
         <v>334</v>
       </c>
-      <c r="C176" t="s">
-        <v>335</v>
-      </c>
       <c r="D176" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
+        <v>335</v>
+      </c>
+      <c r="C177" t="s">
         <v>336</v>
       </c>
-      <c r="C177" t="s">
-        <v>337</v>
-      </c>
       <c r="D177" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
+        <v>337</v>
+      </c>
+      <c r="C178" t="s">
         <v>338</v>
       </c>
-      <c r="C178" t="s">
-        <v>339</v>
-      </c>
       <c r="D178" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
+        <v>339</v>
+      </c>
+      <c r="C179" t="s">
         <v>340</v>
       </c>
-      <c r="C179" t="s">
-        <v>341</v>
-      </c>
       <c r="D179" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
+        <v>341</v>
+      </c>
+      <c r="C180" t="s">
         <v>342</v>
       </c>
-      <c r="C180" t="s">
-        <v>343</v>
-      </c>
       <c r="D180" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
+        <v>343</v>
+      </c>
+      <c r="C181" t="s">
         <v>344</v>
       </c>
-      <c r="C181" t="s">
-        <v>345</v>
-      </c>
       <c r="D181" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
+        <v>345</v>
+      </c>
+      <c r="C182" t="s">
         <v>346</v>
       </c>
-      <c r="C182" t="s">
-        <v>347</v>
-      </c>
       <c r="D182" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
@@ -7638,18 +7639,18 @@
         <v>123</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
+        <v>348</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" t="s">
         <v>350</v>
-      </c>
-      <c r="D185" t="s">
-        <v>351</v>
       </c>
       <c r="E185" t="s">
         <v>29</v>
@@ -7657,13 +7658,13 @@
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
+        <v>351</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="D186" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E186" t="s">
         <v>29</v>
@@ -7671,35 +7672,35 @@
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
+        <v>353</v>
+      </c>
+      <c r="C187" t="s">
         <v>354</v>
       </c>
-      <c r="C187" t="s">
-        <v>355</v>
-      </c>
       <c r="D187" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
+        <v>355</v>
+      </c>
+      <c r="C188" t="s">
         <v>356</v>
       </c>
-      <c r="C188" t="s">
-        <v>357</v>
-      </c>
       <c r="D188" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="D189" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E189" t="s">
         <v>29</v>
@@ -7707,35 +7708,35 @@
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="D190" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
+        <v>361</v>
+      </c>
+      <c r="C191" t="s">
         <v>362</v>
       </c>
-      <c r="C191" t="s">
-        <v>363</v>
-      </c>
       <c r="D191" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
+        <v>363</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="D192" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E192" t="s">
         <v>29</v>
@@ -7743,101 +7744,101 @@
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193" t="s">
         <v>366</v>
       </c>
-      <c r="C193" t="s">
-        <v>367</v>
-      </c>
       <c r="D193" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
+        <v>367</v>
+      </c>
+      <c r="C194" t="s">
         <v>368</v>
       </c>
-      <c r="C194" t="s">
-        <v>369</v>
-      </c>
       <c r="D194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
+        <v>369</v>
+      </c>
+      <c r="C195" t="s">
         <v>370</v>
       </c>
-      <c r="C195" t="s">
-        <v>371</v>
-      </c>
       <c r="D195" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
+        <v>371</v>
+      </c>
+      <c r="C196" t="s">
         <v>372</v>
       </c>
-      <c r="C196" t="s">
-        <v>373</v>
-      </c>
       <c r="D196" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
+        <v>373</v>
+      </c>
+      <c r="C197" t="s">
         <v>374</v>
       </c>
-      <c r="C197" t="s">
-        <v>375</v>
-      </c>
       <c r="D197" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
+        <v>375</v>
+      </c>
+      <c r="C198" t="s">
         <v>376</v>
       </c>
-      <c r="C198" t="s">
-        <v>377</v>
-      </c>
       <c r="D198" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
+        <v>377</v>
+      </c>
+      <c r="C199" t="s">
         <v>378</v>
       </c>
-      <c r="C199" t="s">
-        <v>379</v>
-      </c>
       <c r="D199" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
+        <v>379</v>
+      </c>
+      <c r="C200" t="s">
         <v>380</v>
       </c>
-      <c r="C200" t="s">
-        <v>381</v>
-      </c>
       <c r="D200" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
+        <v>381</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="D201" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E201" t="s">
         <v>29</v>
@@ -7845,13 +7846,13 @@
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
+        <v>383</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="D202" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E202" t="s">
         <v>29</v>
@@ -7859,35 +7860,35 @@
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
+        <v>385</v>
+      </c>
+      <c r="C203" t="s">
         <v>386</v>
       </c>
-      <c r="C203" t="s">
-        <v>387</v>
-      </c>
       <c r="D203" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
+        <v>387</v>
+      </c>
+      <c r="C204" t="s">
         <v>388</v>
       </c>
-      <c r="C204" t="s">
-        <v>389</v>
-      </c>
       <c r="D204" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
+        <v>389</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="D205" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E205" t="s">
         <v>29</v>
@@ -7895,13 +7896,13 @@
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
+        <v>391</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="D206" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E206" t="s">
         <v>29</v>
@@ -7909,46 +7910,46 @@
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
+        <v>393</v>
+      </c>
+      <c r="C207" t="s">
         <v>394</v>
       </c>
-      <c r="C207" t="s">
-        <v>395</v>
-      </c>
       <c r="D207" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
+        <v>395</v>
+      </c>
+      <c r="C208" t="s">
         <v>396</v>
       </c>
-      <c r="C208" t="s">
-        <v>397</v>
-      </c>
       <c r="D208" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
+        <v>397</v>
+      </c>
+      <c r="C209" t="s">
         <v>398</v>
       </c>
-      <c r="C209" t="s">
-        <v>399</v>
-      </c>
       <c r="D209" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
+        <v>399</v>
+      </c>
+      <c r="C210" t="s">
         <v>400</v>
       </c>
-      <c r="C210" t="s">
-        <v>401</v>
-      </c>
       <c r="D210" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
@@ -7959,172 +7960,172 @@
         <v>123</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
+        <v>402</v>
+      </c>
+      <c r="C213" t="s">
         <v>403</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>404</v>
-      </c>
-      <c r="D213" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
+        <v>405</v>
+      </c>
+      <c r="C214" t="s">
         <v>406</v>
       </c>
-      <c r="C214" t="s">
-        <v>407</v>
-      </c>
       <c r="D214" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
+        <v>407</v>
+      </c>
+      <c r="C215" t="s">
         <v>408</v>
       </c>
-      <c r="C215" t="s">
-        <v>409</v>
-      </c>
       <c r="D215" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
+        <v>409</v>
+      </c>
+      <c r="C216" t="s">
         <v>410</v>
       </c>
-      <c r="C216" t="s">
-        <v>411</v>
-      </c>
       <c r="D216" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
+        <v>411</v>
+      </c>
+      <c r="C217" t="s">
         <v>412</v>
       </c>
-      <c r="C217" t="s">
-        <v>413</v>
-      </c>
       <c r="D217" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
+        <v>413</v>
+      </c>
+      <c r="C218" t="s">
         <v>414</v>
       </c>
-      <c r="C218" t="s">
-        <v>415</v>
-      </c>
       <c r="D218" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
+        <v>415</v>
+      </c>
+      <c r="C219" t="s">
         <v>416</v>
       </c>
-      <c r="C219" t="s">
-        <v>417</v>
-      </c>
       <c r="D219" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
+        <v>417</v>
+      </c>
+      <c r="C220" t="s">
         <v>418</v>
       </c>
-      <c r="C220" t="s">
-        <v>419</v>
-      </c>
       <c r="D220" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
+        <v>419</v>
+      </c>
+      <c r="C221" t="s">
         <v>420</v>
       </c>
-      <c r="C221" t="s">
-        <v>421</v>
-      </c>
       <c r="D221" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
+        <v>421</v>
+      </c>
+      <c r="C222" t="s">
         <v>422</v>
       </c>
-      <c r="C222" t="s">
-        <v>423</v>
-      </c>
       <c r="D222" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C223" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D223" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C224" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D224" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
+        <v>425</v>
+      </c>
+      <c r="C225" t="s">
         <v>426</v>
       </c>
-      <c r="C225" t="s">
-        <v>427</v>
-      </c>
       <c r="D225" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C226" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D226" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C227" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D227" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
@@ -8135,282 +8136,282 @@
         <v>123</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
+        <v>430</v>
+      </c>
+      <c r="C230" t="s">
         <v>431</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>432</v>
-      </c>
-      <c r="D230" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
+        <v>433</v>
+      </c>
+      <c r="C231" t="s">
         <v>434</v>
       </c>
-      <c r="C231" t="s">
-        <v>435</v>
-      </c>
       <c r="D231" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
+        <v>435</v>
+      </c>
+      <c r="C232" t="s">
         <v>436</v>
       </c>
-      <c r="C232" t="s">
-        <v>437</v>
-      </c>
       <c r="D232" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
+        <v>437</v>
+      </c>
+      <c r="C233" t="s">
         <v>438</v>
       </c>
-      <c r="C233" t="s">
-        <v>439</v>
-      </c>
       <c r="D233" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
+        <v>439</v>
+      </c>
+      <c r="C234" t="s">
         <v>440</v>
       </c>
-      <c r="C234" t="s">
-        <v>441</v>
-      </c>
       <c r="D234" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C235" t="s">
         <v>442</v>
       </c>
-      <c r="C235" t="s">
-        <v>443</v>
-      </c>
       <c r="D235" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
+        <v>443</v>
+      </c>
+      <c r="C236" t="s">
         <v>444</v>
       </c>
-      <c r="C236" t="s">
-        <v>445</v>
-      </c>
       <c r="D236" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
+        <v>445</v>
+      </c>
+      <c r="C237" t="s">
         <v>446</v>
       </c>
-      <c r="C237" t="s">
-        <v>447</v>
-      </c>
       <c r="D237" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
+        <v>447</v>
+      </c>
+      <c r="C238" t="s">
         <v>448</v>
       </c>
-      <c r="C238" t="s">
-        <v>449</v>
-      </c>
       <c r="D238" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
+        <v>449</v>
+      </c>
+      <c r="C239" t="s">
         <v>450</v>
       </c>
-      <c r="C239" t="s">
-        <v>451</v>
-      </c>
       <c r="D239" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C240" t="s">
         <v>452</v>
       </c>
-      <c r="C240" t="s">
-        <v>453</v>
-      </c>
       <c r="D240" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
+        <v>453</v>
+      </c>
+      <c r="C241" t="s">
         <v>454</v>
       </c>
-      <c r="C241" t="s">
-        <v>455</v>
-      </c>
       <c r="D241" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
+        <v>455</v>
+      </c>
+      <c r="C242" t="s">
         <v>456</v>
       </c>
-      <c r="C242" t="s">
-        <v>457</v>
-      </c>
       <c r="D242" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
+        <v>457</v>
+      </c>
+      <c r="C243" t="s">
         <v>458</v>
       </c>
-      <c r="C243" t="s">
-        <v>459</v>
-      </c>
       <c r="D243" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
+        <v>459</v>
+      </c>
+      <c r="C244" t="s">
         <v>460</v>
       </c>
-      <c r="C244" t="s">
-        <v>461</v>
-      </c>
       <c r="D244" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
+        <v>461</v>
+      </c>
+      <c r="C245" t="s">
         <v>462</v>
       </c>
-      <c r="C245" t="s">
-        <v>463</v>
-      </c>
       <c r="D245" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
+        <v>463</v>
+      </c>
+      <c r="C246" t="s">
         <v>464</v>
       </c>
-      <c r="C246" t="s">
-        <v>465</v>
-      </c>
       <c r="D246" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
+        <v>465</v>
+      </c>
+      <c r="C247" t="s">
         <v>466</v>
       </c>
-      <c r="C247" t="s">
-        <v>467</v>
-      </c>
       <c r="D247" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
+        <v>467</v>
+      </c>
+      <c r="C248" t="s">
         <v>468</v>
       </c>
-      <c r="C248" t="s">
-        <v>469</v>
-      </c>
       <c r="D248" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>470</v>
+        <v>281</v>
+      </c>
+      <c r="C249" t="s">
+        <v>469</v>
       </c>
       <c r="D249" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C250" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D250" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C251" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D251" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
+        <v>472</v>
+      </c>
+      <c r="C252" t="s">
         <v>473</v>
       </c>
-      <c r="C252" t="s">
-        <v>474</v>
-      </c>
       <c r="D252" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C253" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D253" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
+        <v>475</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C254" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="D254" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E254" t="s">
         <v>29</v>
@@ -8418,266 +8419,266 @@
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
+        <v>477</v>
+      </c>
+      <c r="C257" t="s">
         <v>478</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
+        <v>480</v>
+      </c>
+      <c r="C258" t="s">
         <v>481</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>482</v>
-      </c>
-      <c r="D258" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
+        <v>483</v>
+      </c>
+      <c r="C259" t="s">
         <v>484</v>
       </c>
-      <c r="C259" t="s">
-        <v>485</v>
-      </c>
       <c r="D259" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
+        <v>485</v>
+      </c>
+      <c r="C260" t="s">
         <v>486</v>
       </c>
-      <c r="C260" t="s">
-        <v>487</v>
-      </c>
       <c r="D260" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
+        <v>487</v>
+      </c>
+      <c r="C261" t="s">
         <v>488</v>
       </c>
-      <c r="C261" t="s">
-        <v>489</v>
-      </c>
       <c r="D261" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
+        <v>489</v>
+      </c>
+      <c r="C262" t="s">
         <v>490</v>
       </c>
-      <c r="C262" t="s">
-        <v>491</v>
-      </c>
       <c r="D262" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
+        <v>491</v>
+      </c>
+      <c r="C263" t="s">
         <v>492</v>
       </c>
-      <c r="C263" t="s">
-        <v>493</v>
-      </c>
       <c r="D263" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
+        <v>493</v>
+      </c>
+      <c r="C264" t="s">
         <v>494</v>
       </c>
-      <c r="C264" t="s">
-        <v>495</v>
-      </c>
       <c r="D264" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
+        <v>495</v>
+      </c>
+      <c r="C266" t="s">
         <v>496</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="D266" s="9" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
+        <v>498</v>
+      </c>
+      <c r="C267" t="s">
         <v>499</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>500</v>
-      </c>
-      <c r="D267" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
+        <v>501</v>
+      </c>
+      <c r="C268" t="s">
         <v>502</v>
       </c>
-      <c r="C268" t="s">
-        <v>503</v>
-      </c>
       <c r="D268" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
+        <v>503</v>
+      </c>
+      <c r="C269" t="s">
         <v>504</v>
       </c>
-      <c r="C269" t="s">
-        <v>505</v>
-      </c>
       <c r="D269" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
+        <v>505</v>
+      </c>
+      <c r="C270" t="s">
         <v>506</v>
       </c>
-      <c r="C270" t="s">
-        <v>507</v>
-      </c>
       <c r="D270" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C272" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D272" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C273" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D273" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C274" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D274" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C275" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D275" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C276" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D276" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C277" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D277" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C278" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D278" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C279" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D279" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C280" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D280" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C281" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D281" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C282" t="s">
+        <v>666</v>
+      </c>
+      <c r="D282" t="s">
         <v>667</v>
-      </c>
-      <c r="D282" t="s">
-        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -8705,36 +8706,36 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" t="s">
         <v>589</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>590</v>
-      </c>
-      <c r="D9" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" t="s">
         <v>592</v>
-      </c>
-      <c r="D10" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -8763,70 +8764,70 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>595</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D8" t="s">
         <v>597</v>
       </c>
-      <c r="C8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>597</v>
+      </c>
+      <c r="F8" t="s">
         <v>598</v>
-      </c>
-      <c r="E8" t="s">
-        <v>598</v>
-      </c>
-      <c r="F8" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" t="s">
         <v>600</v>
       </c>
-      <c r="E9" t="s">
-        <v>601</v>
-      </c>
       <c r="F9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>601</v>
+      </c>
+      <c r="D10" t="s">
         <v>602</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>603</v>
       </c>
-      <c r="E10" t="s">
-        <v>604</v>
-      </c>
       <c r="F10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" t="s">
         <v>605</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>606</v>
       </c>
-      <c r="E11" t="s">
-        <v>607</v>
-      </c>
       <c r="F11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -8853,98 +8854,98 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" t="s">
         <v>609</v>
-      </c>
-      <c r="D5" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" t="s">
         <v>612</v>
-      </c>
-      <c r="D6" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" t="s">
         <v>615</v>
-      </c>
-      <c r="D7" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" t="s">
         <v>618</v>
-      </c>
-      <c r="D8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" t="s">
         <v>620</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>621</v>
-      </c>
-      <c r="D11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D14" t="s">
         <v>609</v>
-      </c>
-      <c r="D14" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" t="s">
         <v>612</v>
-      </c>
-      <c r="D15" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" t="s">
         <v>617</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>618</v>
-      </c>
-      <c r="D16" t="s">
-        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -8967,20 +8968,20 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -9005,12 +9006,12 @@
   <sheetData>
     <row r="3" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9018,7 +9019,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -9026,7 +9027,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -9034,7 +9035,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -9042,7 +9043,7 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -9050,7 +9051,7 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -9058,7 +9059,7 @@
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D10" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -9066,7 +9067,7 @@
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D11" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -9098,7 +9099,7 @@
   <sheetData>
     <row r="44" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -9129,32 +9130,32 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>637</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>640</v>
-      </c>
       <c r="D5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>641</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -9179,7 +9180,7 @@
   <sheetData>
     <row r="41" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -9208,12 +9209,12 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -9238,7 +9239,7 @@
   <sheetData>
     <row r="27" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -9312,7 +9313,7 @@
   <sheetData>
     <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -9330,7 +9331,7 @@
   </sheetPr>
   <dimension ref="B3:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
@@ -9343,91 +9344,91 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" t="s">
         <v>569</v>
-      </c>
-      <c r="D6" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" t="s">
         <v>571</v>
-      </c>
-      <c r="D7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" t="s">
         <v>573</v>
-      </c>
-      <c r="D8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D9" t="s">
         <v>575</v>
-      </c>
-      <c r="D9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" t="s">
         <v>577</v>
-      </c>
-      <c r="D10" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" t="s">
         <v>579</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="13" t="s">
         <v>580</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="D15" t="s">
         <v>582</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="25" t="s">
         <v>583</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>584</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>584</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>585</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -9448,7 +9449,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -9472,28 +9473,28 @@
   <sheetData>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" t="s">
         <v>400</v>
-      </c>
-      <c r="F33" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
+        <v>397</v>
+      </c>
+      <c r="F34" t="s">
         <v>398</v>
-      </c>
-      <c r="F34" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9551,15 +9552,15 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -9567,108 +9568,108 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" t="s">
         <v>513</v>
-      </c>
-      <c r="D3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" t="s">
         <v>515</v>
-      </c>
-      <c r="D4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" t="s">
         <v>517</v>
-      </c>
-      <c r="D5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D11" t="s">
         <v>522</v>
-      </c>
-      <c r="D11" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D18" t="s">
         <v>526</v>
-      </c>
-      <c r="D18" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
         <v>528</v>
-      </c>
-      <c r="D19" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20" t="s">
         <v>530</v>
-      </c>
-      <c r="D20" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" t="s">
         <v>532</v>
-      </c>
-      <c r="D21" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>533</v>
+      </c>
+      <c r="D23" t="s">
         <v>534</v>
-      </c>
-      <c r="D23" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -9695,139 +9696,139 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" t="s">
         <v>536</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>537</v>
-      </c>
-      <c r="D3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" t="s">
         <v>539</v>
-      </c>
-      <c r="D4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D5" t="s">
         <v>541</v>
-      </c>
-      <c r="D5" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" t="s">
         <v>543</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>544</v>
-      </c>
-      <c r="D8" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" t="s">
         <v>537</v>
-      </c>
-      <c r="D9" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D11" t="s">
         <v>530</v>
-      </c>
-      <c r="D11" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="D12" t="s">
         <v>539</v>
-      </c>
-      <c r="D12" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D13" t="s">
         <v>541</v>
-      </c>
-      <c r="D13" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C16" t="s">
+        <v>543</v>
+      </c>
+      <c r="D16" t="s">
         <v>544</v>
-      </c>
-      <c r="D16" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>536</v>
+      </c>
+      <c r="D17" t="s">
         <v>537</v>
-      </c>
-      <c r="D17" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D19" t="s">
         <v>530</v>
-      </c>
-      <c r="D19" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D20" t="s">
         <v>539</v>
-      </c>
-      <c r="D20" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>540</v>
+      </c>
+      <c r="D21" t="s">
         <v>541</v>
-      </c>
-      <c r="D21" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" t="s">
         <v>548</v>
-      </c>
-      <c r="C26" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -9835,74 +9836,74 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>551</v>
+      </c>
+      <c r="D30" t="s">
         <v>552</v>
-      </c>
-      <c r="D30" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>536</v>
+      </c>
+      <c r="D32" t="s">
         <v>537</v>
-      </c>
-      <c r="D32" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D33" t="s">
         <v>539</v>
-      </c>
-      <c r="D33" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
+        <v>540</v>
+      </c>
+      <c r="D34" t="s">
         <v>541</v>
-      </c>
-      <c r="D34" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>554</v>
+      </c>
+      <c r="D35" t="s">
         <v>555</v>
-      </c>
-      <c r="D35" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>556</v>
+      </c>
+      <c r="D36" t="s">
         <v>557</v>
-      </c>
-      <c r="D36" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -9931,71 +9932,71 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" t="s">
         <v>526</v>
-      </c>
-      <c r="D17" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" t="s">
         <v>528</v>
-      </c>
-      <c r="D18" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D19" t="s">
         <v>530</v>
-      </c>
-      <c r="D19" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" t="s">
         <v>532</v>
-      </c>
-      <c r="D20" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -10003,50 +10004,50 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>529</v>
+      </c>
+      <c r="D30" t="s">
         <v>530</v>
-      </c>
-      <c r="D30" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" t="s">
         <v>562</v>
-      </c>
-      <c r="D31" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -10075,7 +10076,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -10083,55 +10084,55 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D8" t="s">
         <v>530</v>
-      </c>
-      <c r="D8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9" t="s">
         <v>562</v>
-      </c>
-      <c r="D9" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
